--- a/src/debug_dataset.xlsx
+++ b/src/debug_dataset.xlsx
@@ -5,15 +5,16 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew.Jansen\Documents\Python Scripts\L-gen\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew.Jansen\Documents\GitHub\L-gen\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BEF554-E530-492A-9FEF-5FCBE7445263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E9F84-6717-4B00-A7A1-3063AF5A2180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madagascar_collections_localiti" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="91">
   <si>
     <t>CollectionCode</t>
   </si>
@@ -1128,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2109,4 +2110,977 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3164907D-8E71-4E8F-AB4D-5790CA9AC22D}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>33919</v>
+      </c>
+      <c r="E2" s="3">
+        <v>36841</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>-25.033329999999999</v>
+      </c>
+      <c r="Q2">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>33920</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3">
+        <v>-24.75</v>
+      </c>
+      <c r="Q3">
+        <v>46.8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33920</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <v>-24.75</v>
+      </c>
+      <c r="Q4">
+        <v>46.8</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33921</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <v>-24.58333</v>
+      </c>
+      <c r="Q5">
+        <v>46.783329999999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>33922</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>-24.55</v>
+      </c>
+      <c r="Q6">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>33922</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7">
+        <v>-24.55</v>
+      </c>
+      <c r="Q7">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33922</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>-24.55</v>
+      </c>
+      <c r="Q8">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>33922</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>-24.55</v>
+      </c>
+      <c r="Q9">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>33922</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10">
+        <v>-24.55</v>
+      </c>
+      <c r="Q10">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>33922</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11">
+        <v>-24.56278</v>
+      </c>
+      <c r="Q11">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>33923</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q12">
+        <v>46.816670000000002</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>33923</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q13">
+        <v>46.816670000000002</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33924</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q14">
+        <v>46.816670000000002</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33924</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q15">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>33924</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q16">
+        <v>46.816670000000002</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>33924</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q17">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>33925</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q18">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>33925</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q19">
+        <v>46.833329999999997</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>33925</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20">
+        <v>-24.566669999999998</v>
+      </c>
+      <c r="Q20">
+        <v>46.816670000000002</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>